--- a/Jogos_do_Dia/2024-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.61</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="L3" t="n">
-        <v>5.25</v>
+        <v>5.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -969,13 +969,13 @@
         <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4.92</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,128 +1086,128 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
-        <v>2.37</v>
+        <v>7.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>2.75</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.05</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Z5" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AG5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL5" t="n">
         <v>1.7</v>
       </c>
-      <c r="V5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AM5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO5" t="n">
         <v>1.55</v>
       </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1304,10 +1304,10 @@
         <v>1.28</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AE6" t="n">
         <v>1.68</v>
@@ -1343,16 +1343,16 @@
         <v>1.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.75</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1.25</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AP7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="M8" t="n">
         <v>1.44</v>
@@ -1552,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1664,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1691,10 +1691,10 @@
         <v>2.9</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1803,13 +1803,13 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.36</v>
@@ -1830,10 +1830,10 @@
         <v>3.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -1942,13 +1942,13 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.29</v>
@@ -1969,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.25</v>
@@ -2038,10 +2038,10 @@
         <v>1.2</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12">
@@ -2084,10 +2084,10 @@
         <v>2.55</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.5</v>
@@ -2108,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
         <v>1.91</v>
@@ -2226,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>2.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>1.91</v>
@@ -2316,10 +2316,10 @@
         <v>1.2</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.29</v>
@@ -2386,7 +2386,7 @@
         <v>5.17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
         <v>2.25</v>
@@ -2498,10 +2498,10 @@
         <v>2.05</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="U15" t="n">
         <v>2.05</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="K17" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>1.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2915,13 +2915,13 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="M18" t="n">
         <v>1.44</v>
@@ -2942,10 +2942,10 @@
         <v>3.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3011,10 +3011,10 @@
         <v>1.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19">
@@ -3054,13 +3054,13 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="M19" t="n">
         <v>1.44</v>
@@ -3081,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>4.32</v>
+        <v>4.19</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.99</v>
       </c>
       <c r="L2" t="n">
-        <v>3.74</v>
+        <v>2.53</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.61</v>
       </c>
       <c r="S2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -739,10 +739,10 @@
         <v>1.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AB2" t="n">
         <v>1.44</v>
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="K3" t="n">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.16</v>
+        <v>5.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -878,10 +878,10 @@
         <v>2.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AB3" t="n">
         <v>1.62</v>
@@ -969,13 +969,13 @@
         <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.92</v>
+        <v>4.89</v>
       </c>
       <c r="K4" t="n">
-        <v>3.92</v>
+        <v>4.08</v>
       </c>
       <c r="L4" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1017,10 +1017,10 @@
         <v>1.18</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AB4" t="n">
         <v>1.34</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,128 +1086,128 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.75</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.62</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>1.25</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>3.89</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1295,10 +1295,10 @@
         <v>1.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AB6" t="n">
         <v>1.28</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>2.32</v>
+        <v>11.94</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>6.58</v>
       </c>
       <c r="L7" t="n">
-        <v>2.86</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.05</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Z7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="AG7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL7" t="n">
         <v>1.7</v>
       </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1.55</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AP7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.83</v>
+        <v>3.07</v>
       </c>
       <c r="K8" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="L8" t="n">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.44</v>
@@ -1552,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1573,10 +1573,10 @@
         <v>1.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AB8" t="n">
         <v>1.36</v>
@@ -1664,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.97</v>
+        <v>3.41</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="L9" t="n">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1691,10 +1691,10 @@
         <v>2.9</v>
       </c>
       <c r="S9" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1712,10 +1712,10 @@
         <v>1.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AB9" t="n">
         <v>1.45</v>
@@ -1803,13 +1803,13 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.36</v>
@@ -1830,10 +1830,10 @@
         <v>3.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -1851,10 +1851,10 @@
         <v>1.47</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AB10" t="n">
         <v>1.63</v>
@@ -1942,13 +1942,13 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L11" t="n">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="M11" t="n">
         <v>1.29</v>
@@ -1969,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="U11" t="n">
         <v>2.25</v>
@@ -2084,10 +2084,10 @@
         <v>2.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.5</v>
@@ -2108,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
         <v>1.91</v>
@@ -2220,13 +2220,13 @@
         <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>2.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>1.91</v>
@@ -2359,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.29</v>
@@ -2386,10 +2386,10 @@
         <v>5.17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -2498,13 +2498,13 @@
         <v>2.05</v>
       </c>
       <c r="J15" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.38</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T15" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
         <v>2.05</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.44</v>
@@ -2942,10 +2942,10 @@
         <v>3.2</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3054,13 +3054,13 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.44</v>
@@ -3081,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
